--- a/ADLstudy_protocol/annotations.xlsx
+++ b/ADLstudy_protocol/annotations.xlsx
@@ -30,12 +30,6 @@
     <t>Hit table 5 times</t>
   </si>
   <si>
-    <t>Start Oxycom and hit shimmer ECG2 3 times</t>
-  </si>
-  <si>
-    <t>Patient takes first depth breath and hit shimmer ECG2 2 times</t>
-  </si>
-  <si>
     <t>Sitting down</t>
   </si>
   <si>
@@ -93,19 +87,25 @@
     <t>Switching off steps</t>
   </si>
   <si>
-    <t>Activity (hit shimmer ECG2 2 times)</t>
-  </si>
-  <si>
-    <t>Stop Oxycom and hit shimmer ECG2 3 times</t>
-  </si>
-  <si>
-    <t>Hit shimmer 5 times</t>
-  </si>
-  <si>
     <t>Switching on steps</t>
   </si>
   <si>
     <t>Mark with a cross the activity</t>
+  </si>
+  <si>
+    <t>Activity (hit shimmerH 2 times)</t>
+  </si>
+  <si>
+    <t>Start Oxycom and hit shimmerH 3 times</t>
+  </si>
+  <si>
+    <t>Patient takes first depth breath and hit shimmerH 2 times</t>
+  </si>
+  <si>
+    <t>Stop Oxycom and hit shimmerH 3 times</t>
+  </si>
+  <si>
+    <t>Hit shimmers 5 times</t>
   </si>
 </sst>
 </file>
@@ -183,12 +183,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -495,7 +496,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,17 +508,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -543,33 +544,33 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
+      <c r="A10" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
+      <c r="A16" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -587,40 +588,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="32" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="21" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -640,21 +642,23 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -674,21 +678,12 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-    </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -708,21 +703,23 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -742,21 +739,12 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-    </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -776,21 +764,23 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -810,21 +800,12 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -844,21 +825,23 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -878,21 +861,12 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-    </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -912,21 +886,23 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -946,21 +922,12 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-    </row>
-    <row r="16" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -980,21 +947,23 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1014,21 +983,12 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1048,21 +1008,23 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1082,21 +1044,12 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1116,20 +1069,21 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ADLstudy_protocol/annotations.xlsx
+++ b/ADLstudy_protocol/annotations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Hit Shimmer 5 times</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Standing up</t>
   </si>
   <si>
-    <t>Put socks</t>
-  </si>
-  <si>
-    <t>Put shoes</t>
-  </si>
-  <si>
     <t>Put vest</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>Vacuum</t>
   </si>
   <si>
-    <t>Unplug vacuum cleaner</t>
-  </si>
-  <si>
     <t>Rest 3 minutes</t>
   </si>
   <si>
@@ -106,6 +97,12 @@
   </si>
   <si>
     <t>Hit shimmers 5 times</t>
+  </si>
+  <si>
+    <t>Put socks &amp; shoes</t>
+  </si>
+  <si>
+    <t>Put away vacuum cleaner</t>
   </si>
 </sst>
 </file>
@@ -135,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +148,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -183,13 +186,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -495,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -508,17 +518,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -544,33 +554,33 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
+      <c r="A10" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
+      <c r="A16" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -588,503 +598,546 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="21" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="22" width="4.7109375" customWidth="1"/>
+    <col min="23" max="37" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-      <c r="AF6"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+    </row>
+    <row r="7" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-      <c r="AF8"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="8" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+    </row>
+    <row r="9" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+    </row>
+    <row r="11" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-      <c r="AF10"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+    </row>
+    <row r="12" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+    </row>
+    <row r="13" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+    </row>
+    <row r="14" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+    </row>
+    <row r="15" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+    </row>
+    <row r="16" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+    </row>
+    <row r="17" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+    </row>
+    <row r="18" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+    </row>
+    <row r="19" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-      <c r="AF20"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+    </row>
+    <row r="20" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1101,5 +1154,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>